--- a/data/Csrc_tobelist.xlsx
+++ b/data/Csrc_tobelist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="9675" windowHeight="3330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
   <si>
     <t>需求类型</t>
   </si>
@@ -51,25 +51,201 @@
     <t>文字顺序修改</t>
   </si>
   <si>
+    <t>解释语句修改</t>
+  </si>
+  <si>
+    <t>风险分类分析－智能预警风险，点击进来的页面介绍为“人工智能预警”，改成“智能预警风险”。</t>
+  </si>
+  <si>
+    <t>风险分类分析－披露合规分析，补充解释语句“利用自然语言处理技术对招股说明书信息进行抽取，检验披露内容是否完整、准确。”</t>
+  </si>
+  <si>
+    <t>风险分类分析－结构风险，解释语句改为“利用图分析技术对公司进行穿透分析，触发交叉持股等风险结构越多，风险值越高。”</t>
+  </si>
+  <si>
+    <t>合并无效字段</t>
+  </si>
+  <si>
+    <t>智能搜索</t>
+  </si>
+  <si>
+    <t>产品搜索功能优化</t>
+  </si>
+  <si>
+    <t>产品搜索中上市公司产品信息的数据源改为“迪博数据库的年报数据”</t>
+  </si>
+  <si>
+    <t>监管工具箱</t>
+  </si>
+  <si>
+    <t>风险规则，各风险的排列顺序为“交易对手风险值”、“关联交易风险值”、“指标风险值”、“法律风险值”、“舆情风险值”、“结构风险值”、“智能预警风险值”、“财务异常总值”。</t>
+  </si>
+  <si>
+    <t>公司风险详情</t>
+  </si>
+  <si>
+    <t>删除无效字段</t>
+  </si>
+  <si>
+    <t>风险概览－风险层级图，各风险的排列顺序为“交易对手风险值”、“关联交易风险值”、“指标风险值”、“法律风险值”、“舆情风险值”、“结构风险值”、“智能预警风险值”、“财务异常总值”；对公司风险值的解释改为“交易对手风险值＋关联交易风险值＋指标风险值＋法律风险值＋舆情风险值＋结构风险值＋智能预警风险值＋财务异常总值，各分项权重可从“风险规则配置”页面自定义。”；</t>
+  </si>
+  <si>
+    <t>前五名供应商采购额、第一大供应商采购额“占年度销售总额比例”的文字，应该改为“占年度采购总额比率”。</t>
+  </si>
+  <si>
+    <t>风险详情－关联交易风险详情，标题“客户关联”改为“客户与公司关联”，“供应商关联”改为“供应商与公司关联”。</t>
+  </si>
+  <si>
+    <t>关联路径优化</t>
+  </si>
+  <si>
+    <t>风险详情－关联交易风险详情，关联路径改进，展示的路径太多了，需要进行优化，只展示最短路径，但必须是除去供应商、客户关系的最短路径。 </t>
+  </si>
+  <si>
+    <t>修改弹窗按钮</t>
+  </si>
+  <si>
+    <t>风险详情－法律风险详情，点击“查看详情”弹出弹窗之后，将弹窗中黄色“取消”按钮改为右上角红色“关闭”按钮，和上市画像系统的舆情弹窗一样。</t>
+  </si>
+  <si>
+    <t>风险详情－舆情风险详情，点击舆情弹出弹窗之后，将弹窗中黄色“取消”按钮改为右上角红色“关闭”按钮，和上市画像系统的舆情弹窗一样。</t>
+  </si>
+  <si>
+    <t>优化舆情排版</t>
+  </si>
+  <si>
+    <t>风险详情－舆情风险详情，龙利得智能科技股份有限公司，舆情数据，［IPO审查日报10月17日］5过4:有更名后再冲IPO取消审核、有以前终止审核和取消审核过会，此文章排版很奇怪。类似排版很奇怪的舆情数据还有：证监会｜科安达等4公司首发申请均获通过 龙利得智能取消审核。还有舆情数据建议每个段落之间增加一个空行，主要是为了视觉上便于阅读。</t>
+  </si>
+  <si>
+    <t>新名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类风险情况</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险分类分析－交易对手风险，解释语句改为“利用工商数据对公司交易对手进行真实性分析，客户、供应商为新成立公司、注册资本少等情况越多，风险值越高。”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用工商数据对公司交易对手进行真实性分析，客户、供应商为新成立公司、注册资本少等情况越多，风险值越高。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>“风险分类分析”改为“分类风险情况”。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险分类分析</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用业务经验整理的指标体系评价公司，触发阈值的指标越多，风险值越高。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>下标数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>解释语句改为“利用业务经验整理的指标体系评价公司，触发阈值的指标越多，风险值越高。”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险分类分析－指标风险，点击进来的页面介绍为“风险指标体系”，改成“指标风险”，</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标风险</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险指标体系</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标风险值的评价规则是:
+若拟上市公司报告期内三年的毛利率存在异常，则指标风险值为100*权重；
+若拟上市公司报告期内二年的毛利率存在异常，则指标风险值为80*权重；
+若拟上市公司报告期内一年的毛利率存在异常，则指标风险值为60*权重；</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用业务经验整理的指标体系评价公司，触发阈值的指标越多，风险值越高。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能预警风险</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能预警</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险分类分析－舆情风险，点击进来的页面介绍为“负面舆情监测”，改成“舆情风险”，</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>解释语句改为“衡量公司舆情的负面程度，负面舆情越多，爆发的时间越近，风险值越高”。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>负面舆情监测</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>舆情风险</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>衡量公司舆情的负面程度，负面舆情越多，爆发的时间越近，风险值越高。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>衡量公司舆情的负面程度，负面舆情越多，爆发的时间越近，风险值越高 。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>衡量公司舆情的负面程度，负面舆情越多，爆发的时间越近，风险值越高。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用自然语言处理技术对招股说明书信息进行抽取，检验披露内容是否完整、准确。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用图分析技术对公司进行穿透分析，触发交叉持股等风险结构越多，风险值越高 。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用图分析技术对公司进行穿透分析，触发交叉持股等风险结构越多，风险值越高。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域风险情况－区域统计概览，删除“中小企业板”，将“主板”、“中小企业板”合并为“主板、中小板”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主板、中小板</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主板”、“中小企业板”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>风险分类分析，各风险的排列顺序为“交易对手风险”、“关联交易风险”、“指标风险”、“法律风险”、“舆情风险”、“披露合规分析”、“结构风险”、“智能预警风险”、“财务异常”，合理调整图标位置。</t>
-  </si>
-  <si>
-    <t>解释语句修改</t>
-  </si>
-  <si>
-    <t>风险分类分析－智能预警风险，点击进来的页面介绍为“人工智能预警”，改成“智能预警风险”。</t>
-  </si>
-  <si>
-    <t>风险分类分析－披露合规分析，补充解释语句“利用自然语言处理技术对招股说明书信息进行抽取，检验披露内容是否完整、准确。”</t>
-  </si>
-  <si>
-    <t>风险分类分析－结构风险，解释语句改为“利用图分析技术对公司进行穿透分析，触发交叉持股等风险结构越多，风险值越高。”</t>
-  </si>
-  <si>
-    <t>合并无效字段</t>
-  </si>
-  <si>
-    <t>区域风险情况－区域统计概览，删除“中小企业板”，将“主板”、“中小企业板”合并为“主板、中小板”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易对手风险、关联交易风险、指标风险、法律风险、舆情风险、披露合规分析、结构风险、智能预警风险、财务异常</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -94,153 +270,52 @@
       </rPr>
       <t>）</t>
     </r>
-  </si>
-  <si>
-    <t>智能搜索</t>
-  </si>
-  <si>
-    <t>产品搜索功能优化</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>搜产品，查询结果中“是否为上市公司”改成“公司状态”，对应状态为“排队中”、“已上市”；“年报时间”改为复选框；删除大数据分类。</t>
-  </si>
-  <si>
-    <t>产品搜索中上市公司产品信息的数据源改为“迪博数据库的年报数据”</t>
-  </si>
-  <si>
-    <t>监管工具箱</t>
-  </si>
-  <si>
-    <t>风险规则，各风险的排列顺序为“交易对手风险值”、“关联交易风险值”、“指标风险值”、“法律风险值”、“舆情风险值”、“结构风险值”、“智能预警风险值”、“财务异常总值”。</t>
-  </si>
-  <si>
-    <t>公司风险详情</t>
-  </si>
-  <si>
-    <t>删除无效字段</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为上市公司</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">交易对手风险
+关联交易风险
+指标风险
+财务异常
+智能预警风险
+法律风险
+舆情风险
+披露合规分析
+结构风险
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">交易对手风险
+关联交易风险
+指标风险
+法律风险
+舆情风险
+披露合规分析
+结构风险
+智能预警风险
+财务异常
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>基本信息，删除基本信息中的“资产评估机构”，因为数据源未抽取相关字段。</t>
-  </si>
-  <si>
-    <t>风险概览－风险层级图，各风险的排列顺序为“交易对手风险值”、“关联交易风险值”、“指标风险值”、“法律风险值”、“舆情风险值”、“结构风险值”、“智能预警风险值”、“财务异常总值”；对公司风险值的解释改为“交易对手风险值＋关联交易风险值＋指标风险值＋法律风险值＋舆情风险值＋结构风险值＋智能预警风险值＋财务异常总值，各分项权重可从“风险规则配置”页面自定义。”；</t>
-  </si>
-  <si>
-    <t>前五名供应商采购额、第一大供应商采购额“占年度销售总额比例”的文字，应该改为“占年度采购总额比率”。</t>
-  </si>
-  <si>
-    <t>风险详情－关联交易风险详情，标题“客户关联”改为“客户与公司关联”，“供应商关联”改为“供应商与公司关联”。</t>
-  </si>
-  <si>
-    <t>关联路径优化</t>
-  </si>
-  <si>
-    <t>风险详情－关联交易风险详情，关联路径改进，展示的路径太多了，需要进行优化，只展示最短路径，但必须是除去供应商、客户关系的最短路径。 </t>
-  </si>
-  <si>
-    <t>修改弹窗按钮</t>
-  </si>
-  <si>
-    <t>风险详情－法律风险详情，点击“查看详情”弹出弹窗之后，将弹窗中黄色“取消”按钮改为右上角红色“关闭”按钮，和上市画像系统的舆情弹窗一样。</t>
-  </si>
-  <si>
-    <t>风险详情－舆情风险详情，点击舆情弹出弹窗之后，将弹窗中黄色“取消”按钮改为右上角红色“关闭”按钮，和上市画像系统的舆情弹窗一样。</t>
-  </si>
-  <si>
-    <t>优化舆情排版</t>
-  </si>
-  <si>
-    <t>风险详情－舆情风险详情，龙利得智能科技股份有限公司，舆情数据，［IPO审查日报10月17日］5过4:有更名后再冲IPO取消审核、有以前终止审核和取消审核过会，此文章排版很奇怪。类似排版很奇怪的舆情数据还有：证监会｜科安达等4公司首发申请均获通过 龙利得智能取消审核。还有舆情数据建议每个段落之间增加一个空行，主要是为了视觉上便于阅读。</t>
-  </si>
-  <si>
-    <t>新名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类风险情况</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>风险分类分析－交易对手风险，解释语句改为“利用工商数据对公司交易对手进行真实性分析，客户、供应商为新成立公司、注册资本少等情况越多，风险值越高。”</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>利用工商数据对公司交易对手进行真实性分析，客户、供应商为新成立公司、注册资本少等情况越多，风险值越高。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>旧名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>“风险分类分析”改为“分类风险情况”。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>风险分类分析</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>利用业务经验整理的指标体系评价公司，触发阈值的指标越多，风险值越高。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>下标数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>解释语句改为“利用业务经验整理的指标体系评价公司，触发阈值的指标越多，风险值越高。”</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>风险分类分析－指标风险，点击进来的页面介绍为“风险指标体系”，改成“指标风险”，</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>指标风险</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>风险指标体系</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>指标风险值的评价规则是:
-若拟上市公司报告期内三年的毛利率存在异常，则指标风险值为100*权重；
-若拟上市公司报告期内二年的毛利率存在异常，则指标风险值为80*权重；
-若拟上市公司报告期内一年的毛利率存在异常，则指标风险值为60*权重；</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>利用业务经验整理的指标体系评价公司，触发阈值的指标越多，风险值越高。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能预警风险</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工智能预警</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>风险分类分析－舆情风险，点击进来的页面介绍为“负面舆情监测”，改成“舆情风险”，</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>解释语句改为“衡量公司舆情的负面程度，负面舆情越多，爆发的时间越近，风险值越高”。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>负面舆情监测</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>舆情风险</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>衡量公司舆情的负面程度，负面舆情越多，爆发的时间越近，风险值越高。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">资产评估机构: </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -380,14 +455,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -719,15 +794,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -756,13 +831,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -771,7 +846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="103.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="135" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -781,11 +856,21 @@
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="D4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="69" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
@@ -795,16 +880,16 @@
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -821,16 +906,16 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -844,13 +929,13 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -870,13 +955,13 @@
         <v>9</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G8">
         <v>8</v>
@@ -893,16 +978,16 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -916,13 +1001,13 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G10">
         <v>12</v>
@@ -939,13 +1024,23 @@
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11">
         <v>14</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="H11">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
@@ -955,13 +1050,23 @@
         <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12">
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
@@ -971,13 +1076,23 @@
         <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13">
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="86.25" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
@@ -990,186 +1105,268 @@
         <v>10</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="F14" s="7"/>
+      <c r="G14">
+        <v>22</v>
+      </c>
+      <c r="H14">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="69" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15">
+        <v>24</v>
+      </c>
+      <c r="H15">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" ht="86.25" x14ac:dyDescent="0.15">
+      <c r="G16">
+        <v>26</v>
+      </c>
+      <c r="H16">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="86.25" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="G17">
+        <v>28</v>
+      </c>
+      <c r="H17">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" ht="172.5" x14ac:dyDescent="0.15">
+      <c r="F18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18">
+        <v>30</v>
+      </c>
+      <c r="H18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="172.5" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" ht="51.75" x14ac:dyDescent="0.15">
+      <c r="G19">
+        <v>32</v>
+      </c>
+      <c r="H19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" ht="51.75" x14ac:dyDescent="0.15">
+      <c r="G20">
+        <v>34</v>
+      </c>
+      <c r="H20">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" ht="69" x14ac:dyDescent="0.15">
+      <c r="G21">
+        <v>36</v>
+      </c>
+      <c r="H21">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="69" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" ht="69" x14ac:dyDescent="0.15">
+      <c r="G22">
+        <v>38</v>
+      </c>
+      <c r="H22">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="69" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" ht="69" x14ac:dyDescent="0.15">
+      <c r="G23">
+        <v>40</v>
+      </c>
+      <c r="H23">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="69" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" ht="155.25" x14ac:dyDescent="0.15">
+      <c r="G24">
+        <v>42</v>
+      </c>
+      <c r="H24">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="155.25" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
+      <c r="G25">
+        <v>44</v>
+      </c>
+      <c r="H25">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/Csrc_tobelist.xlsx
+++ b/data/Csrc_tobelist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="83">
   <si>
     <t>需求类型</t>
   </si>
@@ -88,12 +88,6 @@
   </si>
   <si>
     <t>风险概览－风险层级图，各风险的排列顺序为“交易对手风险值”、“关联交易风险值”、“指标风险值”、“法律风险值”、“舆情风险值”、“结构风险值”、“智能预警风险值”、“财务异常总值”；对公司风险值的解释改为“交易对手风险值＋关联交易风险值＋指标风险值＋法律风险值＋舆情风险值＋结构风险值＋智能预警风险值＋财务异常总值，各分项权重可从“风险规则配置”页面自定义。”；</t>
-  </si>
-  <si>
-    <t>前五名供应商采购额、第一大供应商采购额“占年度销售总额比例”的文字，应该改为“占年度采购总额比率”。</t>
-  </si>
-  <si>
-    <t>风险详情－关联交易风险详情，标题“客户关联”改为“客户与公司关联”，“供应商关联”改为“供应商与公司关联”。</t>
   </si>
   <si>
     <t>关联路径优化</t>
@@ -273,14 +267,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>搜产品，查询结果中“是否为上市公司”改成“公司状态”，对应状态为“排队中”、“已上市”；“年报时间”改为复选框；删除大数据分类。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司状态</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>是否为上市公司</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -315,7 +301,63 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">资产评估机构: </t>
+    <t>资产评估机构:</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前五名供应商采购额、第一大供应商采购额“占年度销售总额比例”的文字，应该改为“占年度采购总额比率”。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>占年度采购总额比率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>占年度销售总额比率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险详情－关联交易风险详情，标题“客户关联”改为“客户与公司关联”，</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户关联</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户与公司关联</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商关联</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商与公司关联</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题“供应商关联”改为“供应商与公司关联”。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜产品，查询结果中“是否为上市公司”改成“公司状态”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>“年报时间”改为复选框；</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜产品，对应状态为“排队中”、“已上市”；</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除大数据分类。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -323,7 +365,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,8 +406,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="华文楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,6 +430,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -442,9 +497,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -463,6 +515,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -765,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -794,15 +855,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="10"/>
+        <v>35</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -814,11 +875,11 @@
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
@@ -830,14 +891,14 @@
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>38</v>
+      <c r="D3" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -856,14 +917,14 @@
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>69</v>
+      <c r="D4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="G4">
         <v>20</v>
@@ -882,14 +943,14 @@
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>40</v>
+      <c r="D5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -908,14 +969,14 @@
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -928,14 +989,14 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>46</v>
+      <c r="D7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -954,14 +1015,14 @@
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>49</v>
+      <c r="E8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="G8">
         <v>8</v>
@@ -980,14 +1041,14 @@
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -1000,14 +1061,14 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>55</v>
+      <c r="D10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="G10">
         <v>12</v>
@@ -1026,14 +1087,14 @@
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>56</v>
+      <c r="E11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="G11">
         <v>14</v>
@@ -1052,14 +1113,14 @@
       <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>58</v>
+      <c r="E12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="G12">
         <v>16</v>
@@ -1078,14 +1139,14 @@
       <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="G13">
         <v>18</v>
@@ -1104,21 +1165,15 @@
       <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14">
-        <v>22</v>
-      </c>
-      <c r="H14">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="69" x14ac:dyDescent="0.15">
+      <c r="D14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1128,20 +1183,14 @@
       <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15">
-        <v>24</v>
-      </c>
-      <c r="H15">
-        <v>25</v>
+      <c r="D15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
@@ -1154,17 +1203,11 @@
       <c r="C16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16">
-        <v>26</v>
-      </c>
-      <c r="H16">
-        <v>27</v>
-      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="86.25" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
@@ -1176,19 +1219,13 @@
       <c r="C17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17">
-        <v>28</v>
-      </c>
-      <c r="H17">
-        <v>29</v>
-      </c>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
@@ -1200,18 +1237,18 @@
       <c r="C18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7" t="s">
-        <v>72</v>
+      <c r="D18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="G18">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H18">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="172.5" x14ac:dyDescent="0.15">
@@ -1224,17 +1261,11 @@
       <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19">
-        <v>32</v>
-      </c>
-      <c r="H19">
-        <v>33</v>
-      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
@@ -1246,19 +1277,23 @@
       <c r="C20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20">
         <v>24</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20">
-        <v>34</v>
-      </c>
       <c r="H20">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1268,38 +1303,40 @@
       <c r="C21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="D21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="G21">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H21">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+    </row>
+    <row r="22" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="G22">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H22">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="69" x14ac:dyDescent="0.15">
@@ -1310,19 +1347,13 @@
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23">
-        <v>40</v>
-      </c>
-      <c r="H23">
-        <v>41</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="69" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
@@ -1332,21 +1363,15 @@
         <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24">
-        <v>42</v>
-      </c>
-      <c r="H24">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="155.25" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="69" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
@@ -1354,19 +1379,68 @@
         <v>21</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25">
-        <v>44</v>
-      </c>
-      <c r="H25">
-        <v>45</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" ht="155.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="B27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="B28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="B29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/Csrc_tobelist.xlsx
+++ b/data/Csrc_tobelist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="84">
   <si>
     <t>需求类型</t>
   </si>
@@ -358,6 +358,10 @@
   </si>
   <si>
     <t>删除大数据分类。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据分类</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -510,12 +514,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -524,6 +522,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -828,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -860,10 +864,10 @@
       <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="9"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -875,7 +879,7 @@
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="6"/>
@@ -1183,7 +1187,7 @@
       <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>79</v>
       </c>
       <c r="E15" s="6" t="s">
@@ -1192,6 +1196,12 @@
       <c r="F15" s="6" t="s">
         <v>64</v>
       </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+      <c r="H15">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
@@ -1203,7 +1213,7 @@
       <c r="C16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="6"/>
@@ -1349,7 +1359,7 @@
       <c r="C23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="6"/>
@@ -1365,7 +1375,7 @@
       <c r="C24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="6"/>
@@ -1381,7 +1391,7 @@
       <c r="C25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E25" s="6"/>
@@ -1397,7 +1407,7 @@
       <c r="C26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="6"/>
@@ -1423,11 +1433,19 @@
       <c r="C28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>82</v>
       </c>
       <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="F28" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28">
+        <v>32</v>
+      </c>
+      <c r="H28">
+        <v>33</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="33" x14ac:dyDescent="0.15">
       <c r="B29" s="3" t="s">
@@ -1436,7 +1454,7 @@
       <c r="C29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="8" t="s">
         <v>80</v>
       </c>
       <c r="E29" s="6"/>

--- a/data/Csrc_tobelist.xlsx
+++ b/data/Csrc_tobelist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="85">
   <si>
     <t>需求类型</t>
   </si>
@@ -235,10 +235,6 @@
   </si>
   <si>
     <t>风险分类分析，各风险的排列顺序为“交易对手风险”、“关联交易风险”、“指标风险”、“法律风险”、“舆情风险”、“披露合规分析”、“结构风险”、“智能预警风险”、“财务异常”，合理调整图标位置。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易对手风险、关联交易风险、指标风险、法律风险、舆情风险、披露合规分析、结构风险、智能预警风险、财务异常</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -274,6 +270,83 @@
     <t xml:space="preserve">交易对手风险
 关联交易风险
 指标风险
+法律风险
+舆情风险
+披露合规分析
+结构风险
+智能预警风险
+财务异常
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本信息，删除基本信息中的“资产评估机构”，因为数据源未抽取相关字段。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前五名供应商采购额、第一大供应商采购额“占年度销售总额比例”的文字，应该改为“占年度采购总额比率”。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>占年度采购总额比率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>占年度销售总额比率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险详情－关联交易风险详情，标题“客户关联”改为“客户与公司关联”，</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户关联</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户与公司关联</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商关联</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商与公司关联</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题“供应商关联”改为“供应商与公司关联”。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜产品，查询结果中“是否为上市公司”改成“公司状态”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>“年报时间”改为复选框；</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜产品，对应状态为“排队中”、“已上市”；</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除大数据分类。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据分类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">交易对手风险
+关联交易风险
+指标风险
 财务异常
 智能预警风险
 法律风险
@@ -284,84 +357,29 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">交易对手风险
+    <t>交易对手风险
+关联交易风险
+指标风险
+财务异常
+智能预警风险
+法律风险
+舆情风险
+结构风险</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易对手风险
 关联交易风险
 指标风险
 法律风险
 舆情风险
-披露合规分析
 结构风险
 智能预警风险
-财务异常
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本信息，删除基本信息中的“资产评估机构”，因为数据源未抽取相关字段。</t>
+财务异常</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>资产评估机构:</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>前五名供应商采购额、第一大供应商采购额“占年度销售总额比例”的文字，应该改为“占年度采购总额比率”。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>占年度采购总额比率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>占年度销售总额比率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>风险详情－关联交易风险详情，标题“客户关联”改为“客户与公司关联”，</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户关联</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户与公司关联</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商关联</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商与公司关联</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>标题“供应商关联”改为“供应商与公司关联”。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司状态</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜产品，查询结果中“是否为上市公司”改成“公司状态”</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>“年报时间”改为复选框；</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜产品，对应状态为“排队中”、“已上市”；</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除大数据分类。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>大数据分类</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -832,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="B12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -925,10 +943,10 @@
         <v>61</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="G4">
         <v>20</v>
@@ -1159,7 +1177,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="86.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="108" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1169,13 +1187,21 @@
       <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>63</v>
+      <c r="D14" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="6"/>
+        <v>83</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14">
+        <v>34</v>
+      </c>
+      <c r="H14">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
@@ -1188,13 +1214,13 @@
         <v>17</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15">
         <v>30</v>
@@ -1229,12 +1255,10 @@
       <c r="C17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="E17" s="5"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
@@ -1248,11 +1272,11 @@
         <v>22</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="G18">
         <v>22</v>
@@ -1271,7 +1295,7 @@
       <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="6"/>
@@ -1288,13 +1312,13 @@
         <v>9</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G20">
         <v>24</v>
@@ -1314,13 +1338,13 @@
         <v>9</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -1334,13 +1358,13 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G22">
         <v>28</v>
@@ -1421,7 +1445,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -1434,11 +1458,11 @@
         <v>17</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G28">
         <v>32</v>
@@ -1455,7 +1479,7 @@
         <v>17</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>

--- a/data/Csrc_tobelist.xlsx
+++ b/data/Csrc_tobelist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="102">
   <si>
     <t>需求类型</t>
   </si>
@@ -267,6 +267,105 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>前五名供应商采购额、第一大供应商采购额“占年度销售总额比例”的文字，应该改为“占年度采购总额比率”。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>占年度采购总额比率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>占年度销售总额比率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险详情－关联交易风险详情，标题“客户关联”改为“客户与公司关联”，</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户关联</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户与公司关联</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商关联</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商与公司关联</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题“供应商关联”改为“供应商与公司关联”。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜产品，查询结果中“是否为上市公司”改成“公司状态”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>“年报时间”改为复选框；</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜产品，对应状态为“排队中”、“已上市”；</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除大数据分类。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据分类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">交易对手风险
+关联交易风险
+指标风险
+财务异常
+智能预警风险
+法律风险
+舆情风险
+披露合规分析
+结构风险
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易对手风险
+关联交易风险
+指标风险
+财务异常
+智能预警风险
+法律风险
+舆情风险
+结构风险</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易对手风险
+关联交易风险
+指标风险
+法律风险
+舆情风险
+结构风险
+智能预警风险
+财务异常</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产评估机构:</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">交易对手风险
 关联交易风险
 指标风险
@@ -280,106 +379,74 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>法律风险</t>
+  </si>
+  <si>
+    <t>//*[@id="anchor-classifyOverview"]/div[2]/button[1]/a</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联交易风险</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标风险</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>披露合规分析</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构风险</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能预警风险</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易对手风险</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体风险</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/div/div[2]/div[1]/ul/li/ul/li[2]/a</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="anchor-classifyOverview"]/div[2]/button[5]/a</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="anchor-classifyOverview"]/div[2]/button[7]/a</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="anchor-classifyOverview"]/div[2]/button[9]/a</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务异常</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>舆情风险</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="anchor-classifyOverview"]/div[2]/button[8]/a</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>基本信息，删除基本信息中的“资产评估机构”，因为数据源未抽取相关字段。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>前五名供应商采购额、第一大供应商采购额“占年度销售总额比例”的文字，应该改为“占年度采购总额比率”。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>占年度采购总额比率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>占年度销售总额比率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>风险详情－关联交易风险详情，标题“客户关联”改为“客户与公司关联”，</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户关联</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户与公司关联</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商关联</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商与公司关联</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>标题“供应商关联”改为“供应商与公司关联”。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司状态</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜产品，查询结果中“是否为上市公司”改成“公司状态”</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>“年报时间”改为复选框；</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜产品，对应状态为“排队中”、“已上市”；</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除大数据分类。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>大数据分类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">交易对手风险
-关联交易风险
-指标风险
-财务异常
-智能预警风险
-法律风险
-舆情风险
-披露合规分析
-结构风险
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易对手风险
-关联交易风险
-指标风险
-财务异常
-智能预警风险
-法律风险
-舆情风险
-结构风险</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易对手风险
-关联交易风险
-指标风险
-法律风险
-舆情风险
-结构风险
-智能预警风险
-财务异常</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>资产评估机构:</t>
+    <t>//*[@id="anchor-classifyOverview"]/div[2]/button[3]/a</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -387,7 +454,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,6 +501,21 @@
       <name val="华文楷体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -501,15 +583,19 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -529,9 +615,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -541,12 +624,23 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -848,23 +942,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="B12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="39.625" customWidth="1"/>
-    <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="6" width="33.125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="27.75" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="6" max="6" width="64.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -882,13 +976,13 @@
       <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>39</v>
       </c>
       <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -897,14 +991,16 @@
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -922,15 +1018,15 @@
       <c r="F3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="13">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="135" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -943,20 +1039,20 @@
         <v>61</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4">
+        <v>79</v>
+      </c>
+      <c r="G4" s="13">
         <v>20</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="13">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -974,15 +1070,15 @@
       <c r="F5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="13">
         <v>2</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -994,21 +1090,21 @@
       <c r="D6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="14" t="s">
         <v>42</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6">
+      <c r="G6" s="13">
+        <v>4</v>
+      </c>
+      <c r="H6" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4" t="s">
@@ -1020,15 +1116,15 @@
       <c r="F7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="13">
         <v>6</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:8" ht="69" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1046,15 +1142,15 @@
       <c r="F8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="13">
         <v>8</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1072,15 +1168,15 @@
       <c r="F9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="13">
         <v>10</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="13">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="4" t="s">
@@ -1092,15 +1188,15 @@
       <c r="F10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="13">
         <v>12</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="13">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1118,15 +1214,15 @@
       <c r="F11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="13">
         <v>14</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="13">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1144,15 +1240,15 @@
       <c r="F12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="13">
         <v>16</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="13">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1170,15 +1266,15 @@
       <c r="F13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="13">
         <v>18</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="13">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="108" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:8" ht="138" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1191,20 +1287,20 @@
         <v>62</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14">
+        <v>80</v>
+      </c>
+      <c r="G14" s="13">
         <v>34</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="13">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1214,23 +1310,23 @@
         <v>17</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="13">
         <v>30</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="13">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1239,14 +1335,16 @@
       <c r="C16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" ht="86.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1255,14 +1353,16 @@
       <c r="C17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
+      <c r="A18" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1272,21 +1372,21 @@
         <v>22</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18">
+        <v>82</v>
+      </c>
+      <c r="G18" s="13">
         <v>22</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="13">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="172.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1295,14 +1395,16 @@
       <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1312,23 +1414,23 @@
         <v>9</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20">
+      <c r="G20" s="13">
         <v>24</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="13">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1338,43 +1440,43 @@
         <v>9</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="F21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21">
+        <v>68</v>
+      </c>
+      <c r="G21" s="13">
         <v>26</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="13">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22">
+        <v>70</v>
+      </c>
+      <c r="G22" s="13">
         <v>28</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="13">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1383,14 +1485,16 @@
       <c r="C23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1399,14 +1503,16 @@
       <c r="C24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1415,14 +1521,16 @@
       <c r="C25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8" ht="155.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -1431,11 +1539,13 @@
       <c r="C26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="B27" s="3" t="s">
@@ -1445,10 +1555,12 @@
         <v>17</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" spans="1:8" ht="33" x14ac:dyDescent="0.15">
       <c r="B28" s="3" t="s">
@@ -1458,16 +1570,16 @@
         <v>17</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G28">
+        <v>78</v>
+      </c>
+      <c r="G28" s="13">
         <v>32</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="13">
         <v>33</v>
       </c>
     </row>
@@ -1478,11 +1590,195 @@
       <c r="C29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>77</v>
+      <c r="D29" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13">
+        <v>1</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="13">
+        <v>36</v>
+      </c>
+      <c r="H30" s="13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13">
+        <v>2</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13">
+        <v>40</v>
+      </c>
+      <c r="H31" s="13">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13">
+        <v>3</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" s="13">
+        <v>42</v>
+      </c>
+      <c r="H32" s="13">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13">
+        <v>4</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13">
+        <v>44</v>
+      </c>
+      <c r="H33" s="13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13">
+        <v>5</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="13">
+        <v>46</v>
+      </c>
+      <c r="H34" s="13">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13">
+        <v>6</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" s="13">
+        <v>48</v>
+      </c>
+      <c r="H35" s="13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13">
+        <v>7</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" s="13">
+        <v>50</v>
+      </c>
+      <c r="H36" s="13">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13">
+        <v>8</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G37" s="15">
+        <v>52</v>
+      </c>
+      <c r="H37" s="15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13">
+        <v>9</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13">
+        <v>54</v>
+      </c>
+      <c r="H38" s="13">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G39" s="13">
+        <v>38</v>
+      </c>
+      <c r="H39" s="13">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
